--- a/data/gihun/dataset/경남출산율모델.xlsx
+++ b/data/gihun/dataset/경남출산율모델.xlsx
@@ -2693,14 +2693,18 @@
       <c r="C81" t="n">
         <v>0.3733929569591951</v>
       </c>
-      <c r="D81" t="inlineStr"/>
+      <c r="D81" t="n">
+        <v>9.300000000000001</v>
+      </c>
       <c r="E81" t="n">
         <v>1789</v>
       </c>
       <c r="F81" t="n">
         <v>75.43000000000001</v>
       </c>
-      <c r="G81" t="inlineStr"/>
+      <c r="G81" t="n">
+        <v>0.004015837890102835</v>
+      </c>
       <c r="H81" t="n">
         <v>60</v>
       </c>
@@ -2727,14 +2731,18 @@
       <c r="C82" t="n">
         <v>0.4510978043912175</v>
       </c>
-      <c r="D82" t="inlineStr"/>
+      <c r="D82" t="n">
+        <v>9.325000000000001</v>
+      </c>
       <c r="E82" t="n">
         <v>1503</v>
       </c>
       <c r="F82" t="n">
         <v>75.505</v>
       </c>
-      <c r="G82" t="inlineStr"/>
+      <c r="G82" t="n">
+        <v>0.003998940049325394</v>
+      </c>
       <c r="H82" t="n">
         <v>60.2</v>
       </c>
@@ -2761,14 +2769,18 @@
       <c r="C83" t="n">
         <v>0.4176980198019802</v>
       </c>
-      <c r="D83" t="inlineStr"/>
+      <c r="D83" t="n">
+        <v>9.350000000000001</v>
+      </c>
       <c r="E83" t="n">
         <v>1616</v>
       </c>
       <c r="F83" t="n">
         <v>75.878</v>
       </c>
-      <c r="G83" t="inlineStr"/>
+      <c r="G83" t="n">
+        <v>0.003982042208547953</v>
+      </c>
       <c r="H83" t="n">
         <v>60.4</v>
       </c>
@@ -2795,14 +2807,18 @@
       <c r="C84" t="n">
         <v>0.3972222222222222</v>
       </c>
-      <c r="D84" t="inlineStr"/>
+      <c r="D84" t="n">
+        <v>9.375</v>
+      </c>
       <c r="E84" t="n">
         <v>1440</v>
       </c>
       <c r="F84" t="n">
         <v>75.878</v>
       </c>
-      <c r="G84" t="inlineStr"/>
+      <c r="G84" t="n">
+        <v>0.003965144367770511</v>
+      </c>
       <c r="H84" t="n">
         <v>60.6</v>
       </c>
@@ -2829,14 +2845,18 @@
       <c r="C85" t="n">
         <v>0.3205</v>
       </c>
-      <c r="D85" t="inlineStr"/>
+      <c r="D85" t="n">
+        <v>9.4</v>
+      </c>
       <c r="E85" t="n">
         <v>2000</v>
       </c>
       <c r="F85" t="n">
         <v>76.102</v>
       </c>
-      <c r="G85" t="inlineStr"/>
+      <c r="G85" t="n">
+        <v>0.003948246526993071</v>
+      </c>
       <c r="H85" t="n">
         <v>60.9</v>
       </c>
@@ -2863,14 +2883,18 @@
       <c r="C86" t="n">
         <v>0.4008883953359245</v>
       </c>
-      <c r="D86" t="inlineStr"/>
+      <c r="D86" t="n">
+        <v>9.425000000000001</v>
+      </c>
       <c r="E86" t="n">
         <v>1801</v>
       </c>
       <c r="F86" t="n">
         <v>75.953</v>
       </c>
-      <c r="G86" t="inlineStr"/>
+      <c r="G86" t="n">
+        <v>0.00393134868621563</v>
+      </c>
       <c r="H86" t="n">
         <v>61</v>
       </c>
@@ -2897,14 +2921,18 @@
       <c r="C87" t="n">
         <v>0.4326086956521739</v>
       </c>
-      <c r="D87" t="inlineStr"/>
+      <c r="D87" t="n">
+        <v>9.449999999999999</v>
+      </c>
       <c r="E87" t="n">
         <v>1380</v>
       </c>
       <c r="F87" t="n">
         <v>76.252</v>
       </c>
-      <c r="G87" t="inlineStr"/>
+      <c r="G87" t="n">
+        <v>0.003914450845438189</v>
+      </c>
       <c r="H87" t="n">
         <v>60.9</v>
       </c>
@@ -2931,14 +2959,18 @@
       <c r="C88" t="n">
         <v>0.5086928525434643</v>
       </c>
-      <c r="D88" t="inlineStr"/>
+      <c r="D88" t="n">
+        <v>9.475</v>
+      </c>
       <c r="E88" t="n">
         <v>1553</v>
       </c>
       <c r="F88" t="n">
         <v>76.773</v>
       </c>
-      <c r="G88" t="inlineStr"/>
+      <c r="G88" t="n">
+        <v>0.003897553004660748</v>
+      </c>
       <c r="H88" t="n">
         <v>61.1</v>
       </c>
@@ -2965,14 +2997,18 @@
       <c r="C89" t="n">
         <v>0.587012987012987</v>
       </c>
-      <c r="D89" t="inlineStr"/>
+      <c r="D89" t="n">
+        <v>9.5</v>
+      </c>
       <c r="E89" t="n">
         <v>1155</v>
       </c>
       <c r="F89" t="n">
         <v>76.848</v>
       </c>
-      <c r="G89" t="inlineStr"/>
+      <c r="G89" t="n">
+        <v>0.003880655163883307</v>
+      </c>
       <c r="H89" t="n">
         <v>61.3</v>
       </c>
@@ -2999,14 +3035,18 @@
       <c r="C90" t="n">
         <v>0.3241678726483357</v>
       </c>
-      <c r="D90" t="inlineStr"/>
+      <c r="D90" t="n">
+        <v>9.525</v>
+      </c>
       <c r="E90" t="n">
         <v>1382</v>
       </c>
       <c r="F90" t="n">
         <v>76.401</v>
       </c>
-      <c r="G90" t="inlineStr"/>
+      <c r="G90" t="n">
+        <v>0.003863757323105866</v>
+      </c>
       <c r="H90" t="n">
         <v>61.6</v>
       </c>
@@ -3033,14 +3073,18 @@
       <c r="C91" t="n">
         <v>0.2690909090909091</v>
       </c>
-      <c r="D91" t="inlineStr"/>
+      <c r="D91" t="n">
+        <v>9.550000000000001</v>
+      </c>
       <c r="E91" t="n">
         <v>2200</v>
       </c>
       <c r="F91" t="n">
         <v>75.878</v>
       </c>
-      <c r="G91" t="inlineStr"/>
+      <c r="G91" t="n">
+        <v>0.003846859482328425</v>
+      </c>
       <c r="H91" t="n">
         <v>61.7</v>
       </c>
@@ -3067,14 +3111,18 @@
       <c r="C92" t="n">
         <v>0.1824915824915825</v>
       </c>
-      <c r="D92" t="inlineStr"/>
+      <c r="D92" t="n">
+        <v>9.574999999999999</v>
+      </c>
       <c r="E92" t="n">
         <v>2970</v>
       </c>
       <c r="F92" t="n">
         <v>76.401</v>
       </c>
-      <c r="G92" t="inlineStr"/>
+      <c r="G92" t="n">
+        <v>0.003829961641550984</v>
+      </c>
       <c r="H92" t="n">
         <v>61.9</v>
       </c>
@@ -3101,14 +3149,18 @@
       <c r="C93" t="n">
         <v>0.2907334211682038</v>
       </c>
-      <c r="D93" t="inlineStr"/>
+      <c r="D93" t="n">
+        <v>9.6</v>
+      </c>
       <c r="E93" t="n">
         <v>2277</v>
       </c>
       <c r="F93" t="n">
         <v>76.624</v>
       </c>
-      <c r="G93" t="inlineStr"/>
+      <c r="G93" t="n">
+        <v>0.003813063800773543</v>
+      </c>
       <c r="H93" t="n">
         <v>62.1</v>
       </c>
@@ -3135,14 +3187,18 @@
       <c r="C94" t="n">
         <v>0.319226750261233</v>
       </c>
-      <c r="D94" t="inlineStr"/>
+      <c r="D94" t="n">
+        <v>9.725</v>
+      </c>
       <c r="E94" t="n">
         <v>1914</v>
       </c>
       <c r="F94" t="n">
         <v>76.922</v>
       </c>
-      <c r="G94" t="inlineStr"/>
+      <c r="G94" t="n">
+        <v>0.003797019192713419</v>
+      </c>
       <c r="H94" t="n">
         <v>62.3</v>
       </c>
@@ -3169,14 +3225,18 @@
       <c r="C95" t="n">
         <v>0.3573863636363636</v>
       </c>
-      <c r="D95" t="inlineStr"/>
+      <c r="D95" t="n">
+        <v>9.85</v>
+      </c>
       <c r="E95" t="n">
         <v>1760</v>
       </c>
       <c r="F95" t="n">
         <v>77.37</v>
       </c>
-      <c r="G95" t="inlineStr"/>
+      <c r="G95" t="n">
+        <v>0.003780974584653295</v>
+      </c>
       <c r="H95" t="n">
         <v>62.7</v>
       </c>
@@ -3203,14 +3263,18 @@
       <c r="C96" t="n">
         <v>0.3742255266418835</v>
       </c>
-      <c r="D96" t="inlineStr"/>
+      <c r="D96" t="n">
+        <v>9.975</v>
+      </c>
       <c r="E96" t="n">
         <v>1614</v>
       </c>
       <c r="F96" t="n">
         <v>77.59399999999999</v>
       </c>
-      <c r="G96" t="inlineStr"/>
+      <c r="G96" t="n">
+        <v>0.003764929976593171</v>
+      </c>
       <c r="H96" t="n">
         <v>63</v>
       </c>
@@ -3237,14 +3301,18 @@
       <c r="C97" t="n">
         <v>0.3493292053663571</v>
       </c>
-      <c r="D97" t="inlineStr"/>
+      <c r="D97" t="n">
+        <v>10.1</v>
+      </c>
       <c r="E97" t="n">
         <v>1938</v>
       </c>
       <c r="F97" t="n">
         <v>77.669</v>
       </c>
-      <c r="G97" t="inlineStr"/>
+      <c r="G97" t="n">
+        <v>0.003748885368533047</v>
+      </c>
       <c r="H97" t="n">
         <v>63.3</v>
       </c>
@@ -3271,14 +3339,18 @@
       <c r="C98" t="n">
         <v>0.350407450523865</v>
       </c>
-      <c r="D98" t="inlineStr"/>
+      <c r="D98" t="n">
+        <v>10.225</v>
+      </c>
       <c r="E98" t="n">
         <v>1718</v>
       </c>
       <c r="F98" t="n">
         <v>77.74299999999999</v>
       </c>
-      <c r="G98" t="inlineStr"/>
+      <c r="G98" t="n">
+        <v>0.003732840760472923</v>
+      </c>
       <c r="H98" t="n">
         <v>63.5</v>
       </c>
@@ -3305,14 +3377,18 @@
       <c r="C99" t="n">
         <v>0.4203864090606262</v>
       </c>
-      <c r="D99" t="inlineStr"/>
+      <c r="D99" t="n">
+        <v>10.35</v>
+      </c>
       <c r="E99" t="n">
         <v>1501</v>
       </c>
       <c r="F99" t="n">
         <v>77.967</v>
       </c>
-      <c r="G99" t="inlineStr"/>
+      <c r="G99" t="n">
+        <v>0.003716796152412799</v>
+      </c>
       <c r="H99" t="n">
         <v>63.8</v>
       </c>
@@ -3339,14 +3415,18 @@
       <c r="C100" t="n">
         <v>0.4550898203592814</v>
       </c>
-      <c r="D100" t="inlineStr"/>
+      <c r="D100" t="n">
+        <v>10.475</v>
+      </c>
       <c r="E100" t="n">
         <v>1503</v>
       </c>
       <c r="F100" t="n">
         <v>78.042</v>
       </c>
-      <c r="G100" t="inlineStr"/>
+      <c r="G100" t="n">
+        <v>0.003700751544352675</v>
+      </c>
       <c r="H100" t="n">
         <v>63.9</v>
       </c>
@@ -3373,14 +3453,18 @@
       <c r="C101" t="n">
         <v>0.4320987654320987</v>
       </c>
-      <c r="D101" t="inlineStr"/>
+      <c r="D101" t="n">
+        <v>10.6</v>
+      </c>
       <c r="E101" t="n">
         <v>1053</v>
       </c>
       <c r="F101" t="n">
         <v>78.563</v>
       </c>
-      <c r="G101" t="inlineStr"/>
+      <c r="G101" t="n">
+        <v>0.003684706936292551</v>
+      </c>
       <c r="H101" t="n">
         <v>64.2</v>
       </c>
@@ -3407,14 +3491,18 @@
       <c r="C102" t="n">
         <v>0.4544287548138639</v>
       </c>
-      <c r="D102" t="inlineStr"/>
+      <c r="D102" t="n">
+        <v>10.725</v>
+      </c>
       <c r="E102" t="n">
         <v>1558</v>
       </c>
       <c r="F102" t="n">
         <v>78.71299999999999</v>
       </c>
-      <c r="G102" t="inlineStr"/>
+      <c r="G102" t="n">
+        <v>0.003668662328232427</v>
+      </c>
       <c r="H102" t="n">
         <v>64.40000000000001</v>
       </c>
@@ -3441,14 +3529,18 @@
       <c r="C103" t="n">
         <v>0.3086534012031467</v>
       </c>
-      <c r="D103" t="inlineStr"/>
+      <c r="D103" t="n">
+        <v>10.85</v>
+      </c>
       <c r="E103" t="n">
         <v>2161</v>
       </c>
       <c r="F103" t="n">
         <v>78.639</v>
       </c>
-      <c r="G103" t="inlineStr"/>
+      <c r="G103" t="n">
+        <v>0.003652617720172303</v>
+      </c>
       <c r="H103" t="n">
         <v>64.8</v>
       </c>
@@ -3475,14 +3567,18 @@
       <c r="C104" t="n">
         <v>0.2200938232994527</v>
       </c>
-      <c r="D104" t="inlineStr"/>
+      <c r="D104" t="n">
+        <v>10.975</v>
+      </c>
       <c r="E104" t="n">
         <v>2558</v>
       </c>
       <c r="F104" t="n">
         <v>78.938</v>
       </c>
-      <c r="G104" t="inlineStr"/>
+      <c r="G104" t="n">
+        <v>0.003636573112112179</v>
+      </c>
       <c r="H104" t="n">
         <v>64.90000000000001</v>
       </c>
@@ -9898,7 +9994,9 @@
       <c r="F273" t="n">
         <v>104.9</v>
       </c>
-      <c r="G273" t="inlineStr"/>
+      <c r="G273" t="n">
+        <v>0.00145384381393185</v>
+      </c>
       <c r="H273" t="n">
         <v>104.4</v>
       </c>
@@ -9928,7 +10026,9 @@
       <c r="F274" t="n">
         <v>105.49</v>
       </c>
-      <c r="G274" t="inlineStr"/>
+      <c r="G274" t="n">
+        <v>0.00145384381393185</v>
+      </c>
       <c r="H274" t="n">
         <v>104.7</v>
       </c>
@@ -9958,7 +10058,9 @@
       <c r="F275" t="n">
         <v>106.4</v>
       </c>
-      <c r="G275" t="inlineStr"/>
+      <c r="G275" t="n">
+        <v>0.00145384381393185</v>
+      </c>
       <c r="H275" t="n">
         <v>105.1</v>
       </c>
@@ -9988,7 +10090,9 @@
       <c r="F276" t="n">
         <v>107.24</v>
       </c>
-      <c r="G276" t="inlineStr"/>
+      <c r="G276" t="n">
+        <v>0.00145384381393185</v>
+      </c>
       <c r="H276" t="n">
         <v>105.5</v>
       </c>
@@ -10018,7 +10122,9 @@
       <c r="F277" t="n">
         <v>107.91</v>
       </c>
-      <c r="G277" t="inlineStr"/>
+      <c r="G277" t="n">
+        <v>0.00145384381393185</v>
+      </c>
       <c r="H277" t="n">
         <v>105.9</v>
       </c>
@@ -10048,7 +10154,9 @@
       <c r="F278" t="n">
         <v>108.67</v>
       </c>
-      <c r="G278" t="inlineStr"/>
+      <c r="G278" t="n">
+        <v>0.00145384381393185</v>
+      </c>
       <c r="H278" t="n">
         <v>106.3</v>
       </c>
@@ -10078,7 +10186,9 @@
       <c r="F279" t="n">
         <v>109.2</v>
       </c>
-      <c r="G279" t="inlineStr"/>
+      <c r="G279" t="n">
+        <v>0.00145384381393185</v>
+      </c>
       <c r="H279" t="n">
         <v>106.5</v>
       </c>
@@ -10108,7 +10218,9 @@
       <c r="F280" t="n">
         <v>108.87</v>
       </c>
-      <c r="G280" t="inlineStr"/>
+      <c r="G280" t="n">
+        <v>0.00145384381393185</v>
+      </c>
       <c r="H280" t="n">
         <v>106.5</v>
       </c>
@@ -10138,7 +10250,9 @@
       <c r="F281" t="n">
         <v>109.1</v>
       </c>
-      <c r="G281" t="inlineStr"/>
+      <c r="G281" t="n">
+        <v>0.00145384381393185</v>
+      </c>
       <c r="H281" t="n">
         <v>106.3</v>
       </c>
@@ -10168,7 +10282,9 @@
       <c r="F282" t="n">
         <v>109.37</v>
       </c>
-      <c r="G282" t="inlineStr"/>
+      <c r="G282" t="n">
+        <v>0.00145384381393185</v>
+      </c>
       <c r="H282" t="n">
         <v>105.7</v>
       </c>
@@ -10198,7 +10314,9 @@
       <c r="F283" t="n">
         <v>109.27</v>
       </c>
-      <c r="G283" t="inlineStr"/>
+      <c r="G283" t="n">
+        <v>0.00145384381393185</v>
+      </c>
       <c r="H283" t="n">
         <v>104.3</v>
       </c>
@@ -10222,13 +10340,15 @@
       </c>
       <c r="C284" t="inlineStr"/>
       <c r="D284" t="n">
-        <v>19.5</v>
+        <v>18</v>
       </c>
       <c r="E284" t="inlineStr"/>
       <c r="F284" t="n">
         <v>109.38</v>
       </c>
-      <c r="G284" t="inlineStr"/>
+      <c r="G284" t="n">
+        <v>0.00145384381393185</v>
+      </c>
       <c r="H284" t="n">
         <v>101.9</v>
       </c>
@@ -10256,7 +10376,9 @@
       <c r="F285" t="n">
         <v>110.14</v>
       </c>
-      <c r="G285" t="inlineStr"/>
+      <c r="G285" t="n">
+        <v>0.00145384381393185</v>
+      </c>
       <c r="H285" t="inlineStr"/>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
